--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.027064927592573</v>
+        <v>1.100809410922692</v>
       </c>
       <c r="D2">
-        <v>0.304537831484929</v>
+        <v>0.2828787030002022</v>
       </c>
       <c r="E2">
         <v>0.6342658000447414</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.005188985429085</v>
+        <v>-1.16569513054456</v>
       </c>
       <c r="D3">
-        <v>0.3149506980985295</v>
+        <v>0.256220747945666</v>
       </c>
       <c r="E3">
         <v>0.6342658000447414</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.6623051805658992</v>
+        <v>-0.9096851982215011</v>
       </c>
       <c r="D4">
-        <v>0.5078665531768447</v>
+        <v>0.3728476226108648</v>
       </c>
       <c r="E4">
         <v>0.6342658000447414</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.1173753169317957</v>
+        <v>0.1374289150963754</v>
       </c>
       <c r="D5">
-        <v>0.9065766817016612</v>
+        <v>0.891941794213305</v>
       </c>
       <c r="E5">
         <v>0.6342658000447414</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.947958696551062</v>
+        <v>-1.493541334338836</v>
       </c>
       <c r="D6">
-        <v>0.0515863517705728</v>
+        <v>0.1495000251924989</v>
       </c>
       <c r="E6">
         <v>0.6112845880987049</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.459352523386683</v>
+        <v>-1.165727686716384</v>
       </c>
       <c r="D7">
-        <v>0.1446551641303815</v>
+        <v>0.2562078564913526</v>
       </c>
       <c r="E7">
         <v>0.6112845880987049</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.7560377971538949</v>
+        <v>-0.723617842647205</v>
       </c>
       <c r="D8">
-        <v>0.449732591800911</v>
+        <v>0.4769247564186445</v>
       </c>
       <c r="E8">
         <v>0.6112845880987049</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.2719371425084768</v>
+        <v>0.2995676489021638</v>
       </c>
       <c r="D9">
-        <v>0.7857037855184228</v>
+        <v>0.7673189114072136</v>
       </c>
       <c r="E9">
         <v>0.6574983163691337</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.116901498733181</v>
+        <v>1.19693178026341</v>
       </c>
       <c r="D10">
-        <v>0.2641962467372607</v>
+        <v>0.244072370699715</v>
       </c>
       <c r="E10">
         <v>0.6574983163691337</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6997627184664803</v>
+        <v>0.7630321345303647</v>
       </c>
       <c r="D11">
-        <v>0.4841724381576298</v>
+        <v>0.4535490904393793</v>
       </c>
       <c r="E11">
         <v>0.6512897045650666</v>
